--- a/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
+++ b/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
@@ -145,6 +145,74 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
+++ b/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
@@ -111,7 +111,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -138,6 +138,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,6 +594,9 @@
           <t>Michigan</t>
         </is>
       </c>
+      <c r="C1" s="22" t="n">
+        <v>44307</v>
+      </c>
       <c r="J1" s="19" t="inlineStr">
         <is>
           <t>Alabama</t>
